--- a/data_indexpoints_tidy/tallmateriale_19955.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_19955.xlsx
@@ -1144,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1305,35 +1305,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>89459V319651</t>
+          <t>52295V2228379</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raglamyr</t>
+          <t>Norheim industri</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>E134</t>
+          <t>fv. 4848</t>
         </is>
       </c>
       <c r="D5">
         <v>2025</v>
       </c>
-      <c r="I5">
-        <v>13.57</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>34650V319662</t>
+          <t>89459V319651</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raglamyr  Avkj. rampe fra Haugesund</t>
+          <t>Raglamyr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1344,112 +1341,135 @@
       <c r="D6">
         <v>2025</v>
       </c>
-      <c r="E6">
-        <v>2.92</v>
-      </c>
-      <c r="F6">
-        <v>3.8</v>
-      </c>
-      <c r="G6">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="H6">
-        <v>-8.44</v>
-      </c>
       <c r="I6">
-        <v>6.53</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>58887V2228177</t>
+          <t>34650V319662</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Raglamyr vest</t>
+          <t>Raglamyr  Avkj. rampe fra Haugesund</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>fv. 4848</t>
+          <t>E134</t>
         </is>
       </c>
       <c r="D7">
         <v>2025</v>
       </c>
+      <c r="E7">
+        <v>2.92</v>
+      </c>
       <c r="F7">
-        <v>3.63</v>
+        <v>3.8</v>
       </c>
       <c r="G7">
-        <v>11.29</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="H7">
-        <v>-1.41</v>
+        <v>-8.44</v>
       </c>
       <c r="I7">
-        <v>3.15</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>42420V320754</t>
+          <t>58887V2228177</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Salhusvegen</t>
+          <t>Raglamyr vest</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>fv. 4852</t>
+          <t>fv. 4848</t>
         </is>
       </c>
       <c r="D8">
         <v>2025</v>
       </c>
-      <c r="E8">
-        <v>-1.09</v>
-      </c>
       <c r="F8">
-        <v>1.07</v>
+        <v>3.63</v>
+      </c>
+      <c r="G8">
+        <v>11.29</v>
+      </c>
+      <c r="H8">
+        <v>-1.41</v>
+      </c>
+      <c r="I8">
+        <v>3.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03999V320544</t>
+          <t>42420V320754</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Skjoldavegen</t>
+          <t>Salhusvegen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>fv. 4856</t>
+          <t>fv. 4852</t>
         </is>
       </c>
       <c r="D9">
         <v>2025</v>
       </c>
       <c r="E9">
+        <v>-1.09</v>
+      </c>
+      <c r="F9">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>03999V320544</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Skjoldavegen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>fv. 4856</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>2025</v>
+      </c>
+      <c r="E10">
         <v>3.89</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>5.48</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>12.07</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-3.62</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>3.65</v>
       </c>
     </row>
@@ -1546,19 +1566,19 @@
         <v>2025</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E2">
-        <v>1.0257</v>
+        <v>1.0279</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>1.266968902466157</v>
+        <v>1.651242178194252</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1577,19 +1597,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>mai</t>
+          <t>jun</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>jan-mai</t>
+          <t>jan-jun</t>
         </is>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="N2">
-        <v>5.1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2598,28 +2618,31 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>88119V319814</t>
+          <t>51936V319817</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Norheim (Karmsund)</t>
+          <t>Karmsundgt/Stavangergt.</t>
         </is>
       </c>
       <c r="C36">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>99.91964429206621</v>
+        <v>99.97129117921482</v>
       </c>
       <c r="F36">
-        <v>99.91964429206621</v>
+        <v>99.97129117921482</v>
       </c>
       <c r="G36">
-        <v>17427</v>
+        <v>25776</v>
+      </c>
+      <c r="H36">
+        <v>1.9</v>
       </c>
     </row>
     <row r="37">
@@ -2637,16 +2660,16 @@
         <v>2024</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>99.87337284100695</v>
+        <v>99.91964429206621</v>
       </c>
       <c r="F37">
-        <v>99.87337284100694</v>
+        <v>99.91964429206621</v>
       </c>
       <c r="G37">
-        <v>18379</v>
+        <v>17427</v>
       </c>
     </row>
     <row r="38">
@@ -2664,16 +2687,16 @@
         <v>2024</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>99.67321956533016</v>
+        <v>99.87337284100695</v>
       </c>
       <c r="F38">
-        <v>99.67321956533016</v>
+        <v>99.87337284100694</v>
       </c>
       <c r="G38">
-        <v>17858</v>
+        <v>18379</v>
       </c>
     </row>
     <row r="39">
@@ -2691,16 +2714,16 @@
         <v>2024</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>99.52640303102061</v>
+        <v>99.67321956533016</v>
       </c>
       <c r="F39">
-        <v>99.52640303102061</v>
+        <v>99.67321956533016</v>
       </c>
       <c r="G39">
-        <v>19442</v>
+        <v>17858</v>
       </c>
     </row>
     <row r="40">
@@ -2718,16 +2741,16 @@
         <v>2024</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>99.09647333139029</v>
+        <v>99.52640303102061</v>
       </c>
       <c r="F40">
-        <v>99.09647333139027</v>
+        <v>99.52640303102061</v>
       </c>
       <c r="G40">
-        <v>18833</v>
+        <v>19442</v>
       </c>
     </row>
     <row r="41">
@@ -2745,16 +2768,16 @@
         <v>2024</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>96.0505279517957</v>
+        <v>99.09647333139029</v>
       </c>
       <c r="F41">
-        <v>99.35918894361819</v>
+        <v>99.09647333139027</v>
       </c>
       <c r="G41">
-        <v>19203</v>
+        <v>18833</v>
       </c>
     </row>
     <row r="42">
@@ -2772,16 +2795,16 @@
         <v>2024</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>99.26365660140419</v>
+        <v>96.0505279517957</v>
       </c>
       <c r="F42">
-        <v>99.26365660140419</v>
+        <v>99.35918894361819</v>
       </c>
       <c r="G42">
-        <v>16061</v>
+        <v>19203</v>
       </c>
     </row>
     <row r="43">
@@ -2799,16 +2822,16 @@
         <v>2024</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>99.32006799320068</v>
+        <v>99.26365660140419</v>
       </c>
       <c r="F43">
-        <v>99.32006799320068</v>
+        <v>99.26365660140419</v>
       </c>
       <c r="G43">
-        <v>18441</v>
+        <v>16061</v>
       </c>
     </row>
     <row r="44">
@@ -2826,16 +2849,16 @@
         <v>2024</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>95.97182002022245</v>
+        <v>99.32006799320068</v>
       </c>
       <c r="F44">
-        <v>99.27776975299726</v>
+        <v>99.32006799320068</v>
       </c>
       <c r="G44">
-        <v>19172</v>
+        <v>18441</v>
       </c>
     </row>
     <row r="45">
@@ -2853,16 +2876,16 @@
         <v>2024</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>99.53423605108999</v>
+        <v>95.97182002022245</v>
       </c>
       <c r="F45">
-        <v>99.53423605108999</v>
+        <v>99.27776975299726</v>
       </c>
       <c r="G45">
-        <v>19343</v>
+        <v>19172</v>
       </c>
     </row>
     <row r="46">
@@ -2880,16 +2903,16 @@
         <v>2024</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>99.76528070511593</v>
+        <v>99.53423605108999</v>
       </c>
       <c r="F46">
-        <v>99.76528070511593</v>
+        <v>99.53423605108999</v>
       </c>
       <c r="G46">
-        <v>19490</v>
+        <v>19343</v>
       </c>
     </row>
     <row r="47">
@@ -2907,16 +2930,16 @@
         <v>2024</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>99.87360438171477</v>
+        <v>99.76528070511593</v>
       </c>
       <c r="F47">
-        <v>99.87360438171477</v>
+        <v>99.76528070511593</v>
       </c>
       <c r="G47">
-        <v>17933</v>
+        <v>19490</v>
       </c>
     </row>
     <row r="48">
@@ -2931,22 +2954,19 @@
         </is>
       </c>
       <c r="C48">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>96.70732512953367</v>
+        <v>99.87360438171477</v>
       </c>
       <c r="F48">
-        <v>99.93523316062176</v>
+        <v>99.87360438171477</v>
       </c>
       <c r="G48">
-        <v>17360</v>
-      </c>
-      <c r="H48">
-        <v>2.84</v>
+        <v>17933</v>
       </c>
     </row>
     <row r="49">
@@ -2964,19 +2984,19 @@
         <v>2025</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>99.99012004149583</v>
+        <v>96.70732512953367</v>
       </c>
       <c r="F49">
-        <v>99.99012004149583</v>
+        <v>99.93523316062176</v>
       </c>
       <c r="G49">
-        <v>18856</v>
+        <v>17360</v>
       </c>
       <c r="H49">
-        <v>2.95</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="50">
@@ -2994,19 +3014,19 @@
         <v>2025</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>96.7559543277372</v>
+        <v>99.99012004149583</v>
       </c>
       <c r="F50">
-        <v>99.98548550970052</v>
+        <v>99.99012004149583</v>
       </c>
       <c r="G50">
-        <v>19226</v>
+        <v>18856</v>
       </c>
       <c r="H50">
-        <v>8.34</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="51">
@@ -3024,19 +3044,19 @@
         <v>2025</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>99.9806257870774</v>
+        <v>96.7559543277372</v>
       </c>
       <c r="F51">
-        <v>99.9806257870774</v>
+        <v>99.98548550970052</v>
       </c>
       <c r="G51">
-        <v>19163</v>
+        <v>19226</v>
       </c>
       <c r="H51">
-        <v>-1.44</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="52">
@@ -3054,73 +3074,79 @@
         <v>2025</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>99.97567820482215</v>
+        <v>99.9806257870774</v>
       </c>
       <c r="F52">
-        <v>99.9856767724994</v>
+        <v>99.9806257870774</v>
       </c>
       <c r="G52">
-        <v>19400</v>
+        <v>19163</v>
       </c>
       <c r="H52">
-        <v>3.04</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>52295V2228379</t>
+          <t>88119V319814</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Norheim industri</t>
+          <t>Norheim (Karmsund)</t>
         </is>
       </c>
       <c r="C53">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53">
-        <v>99.97862791194699</v>
+        <v>96.75623275003557</v>
       </c>
       <c r="F53">
-        <v>99.97862791194699</v>
+        <v>99.98577322520984</v>
       </c>
       <c r="G53">
-        <v>12906</v>
+        <v>19537</v>
+      </c>
+      <c r="H53">
+        <v>3.04</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>52295V2228379</t>
+          <t>88119V319814</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Norheim industri</t>
+          <t>Norheim (Karmsund)</t>
         </is>
       </c>
       <c r="C54">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E54">
-        <v>99.92627543497493</v>
+        <v>99.97642176742431</v>
       </c>
       <c r="F54">
-        <v>99.92627543497493</v>
+        <v>99.97642176742431</v>
       </c>
       <c r="G54">
-        <v>12499</v>
+        <v>19624</v>
+      </c>
+      <c r="H54">
+        <v>3.33</v>
       </c>
     </row>
     <row r="55">
@@ -3138,16 +3164,16 @@
         <v>2024</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>99.96322718246672</v>
+        <v>99.97862791194699</v>
       </c>
       <c r="F55">
-        <v>99.96322718246672</v>
+        <v>99.97862791194699</v>
       </c>
       <c r="G55">
-        <v>12541</v>
+        <v>12906</v>
       </c>
     </row>
     <row r="56">
@@ -3165,16 +3191,16 @@
         <v>2024</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>99.99153618281845</v>
+        <v>99.92627543497493</v>
       </c>
       <c r="F56">
-        <v>99.99153618281845</v>
+        <v>99.92627543497493</v>
       </c>
       <c r="G56">
-        <v>10917</v>
+        <v>12499</v>
       </c>
     </row>
     <row r="57">
@@ -3192,16 +3218,16 @@
         <v>2024</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>99.99240525556316</v>
+        <v>99.96322718246672</v>
       </c>
       <c r="F57">
-        <v>99.99240525556316</v>
+        <v>99.96322718246672</v>
       </c>
       <c r="G57">
-        <v>12168</v>
+        <v>12541</v>
       </c>
     </row>
     <row r="58">
@@ -3219,16 +3245,16 @@
         <v>2024</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>99.94798246265884</v>
+        <v>99.99153618281845</v>
       </c>
       <c r="F58">
-        <v>99.94798246265884</v>
+        <v>99.99153618281845</v>
       </c>
       <c r="G58">
-        <v>12402</v>
+        <v>10917</v>
       </c>
     </row>
     <row r="59">
@@ -3246,16 +3272,16 @@
         <v>2024</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>99.99268256988145</v>
+        <v>99.99240525556316</v>
       </c>
       <c r="F59">
-        <v>99.99268256988145</v>
+        <v>99.99240525556316</v>
       </c>
       <c r="G59">
-        <v>12612</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="60">
@@ -3273,16 +3299,16 @@
         <v>2024</v>
       </c>
       <c r="D60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>99.7940779663424</v>
+        <v>99.94798246265884</v>
       </c>
       <c r="F60">
-        <v>99.7940779663424</v>
+        <v>99.94798246265884</v>
       </c>
       <c r="G60">
-        <v>13048</v>
+        <v>12402</v>
       </c>
     </row>
     <row r="61">
@@ -3300,16 +3326,16 @@
         <v>2024</v>
       </c>
       <c r="D61">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>99.26526283896379</v>
+        <v>99.99268256988145</v>
       </c>
       <c r="F61">
-        <v>99.26526283896379</v>
+        <v>99.99268256988145</v>
       </c>
       <c r="G61">
-        <v>12330</v>
+        <v>12612</v>
       </c>
     </row>
     <row r="62">
@@ -3324,19 +3350,19 @@
         </is>
       </c>
       <c r="C62">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>99.91086621829672</v>
+        <v>99.7940779663424</v>
       </c>
       <c r="F62">
-        <v>99.91086621829673</v>
+        <v>99.7940779663424</v>
       </c>
       <c r="G62">
-        <v>11465</v>
+        <v>13048</v>
       </c>
     </row>
     <row r="63">
@@ -3351,19 +3377,19 @@
         </is>
       </c>
       <c r="C63">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>99.99232186732186</v>
+        <v>99.26526283896379</v>
       </c>
       <c r="F63">
-        <v>99.99232186732186</v>
+        <v>99.26526283896379</v>
       </c>
       <c r="G63">
-        <v>12045</v>
+        <v>12330</v>
       </c>
     </row>
     <row r="64">
@@ -3381,97 +3407,100 @@
         <v>2025</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>58.06</v>
+        <v>99.91086621829672</v>
       </c>
       <c r="F64">
-        <v>100</v>
+        <v>99.91086621829673</v>
       </c>
       <c r="G64">
-        <v>11863</v>
+        <v>11465</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>34650V319662</t>
+          <t>52295V2228379</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Raglamyr  Avkj. rampe fra Haugesund</t>
+          <t>Norheim industri</t>
         </is>
       </c>
       <c r="C65">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>99.88188976377953</v>
+        <v>99.99232186732186</v>
       </c>
       <c r="F65">
-        <v>99.88188976377953</v>
+        <v>99.99232186732186</v>
       </c>
       <c r="G65">
-        <v>2333</v>
+        <v>12045</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>34650V319662</t>
+          <t>52295V2228379</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Raglamyr  Avkj. rampe fra Haugesund</t>
+          <t>Norheim industri</t>
         </is>
       </c>
       <c r="C66">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>99.80930587337909</v>
+        <v>58.06</v>
       </c>
       <c r="F66">
-        <v>99.80930587337909</v>
+        <v>100</v>
       </c>
       <c r="G66">
-        <v>2410</v>
+        <v>11863</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>34650V319662</t>
+          <t>52295V2228379</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Raglamyr  Avkj. rampe fra Haugesund</t>
+          <t>Norheim industri</t>
         </is>
       </c>
       <c r="C67">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>99.55805544395339</v>
+        <v>99.96328388897047</v>
       </c>
       <c r="F67">
-        <v>99.55805544395339</v>
+        <v>99.96328388897048</v>
       </c>
       <c r="G67">
-        <v>2280</v>
+        <v>12542</v>
+      </c>
+      <c r="H67">
+        <v>0.01</v>
       </c>
     </row>
     <row r="68">
@@ -3489,16 +3518,16 @@
         <v>2024</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>99.45799457994579</v>
+        <v>99.88188976377953</v>
       </c>
       <c r="F68">
-        <v>99.45799457994579</v>
+        <v>99.88188976377953</v>
       </c>
       <c r="G68">
-        <v>2706</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="69">
@@ -3516,16 +3545,16 @@
         <v>2024</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>99.169449003517</v>
+        <v>99.80930587337909</v>
       </c>
       <c r="F69">
-        <v>99.17936694021103</v>
+        <v>99.80930587337909</v>
       </c>
       <c r="G69">
-        <v>2336</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="70">
@@ -3543,16 +3572,16 @@
         <v>2024</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>86.11400377358491</v>
+        <v>99.55805544395339</v>
       </c>
       <c r="F70">
-        <v>99.35849056603774</v>
+        <v>99.55805544395339</v>
       </c>
       <c r="G70">
-        <v>2411</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="71">
@@ -3570,16 +3599,16 @@
         <v>2024</v>
       </c>
       <c r="D71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>99.28910067114094</v>
+        <v>99.45799457994579</v>
       </c>
       <c r="F71">
-        <v>99.41834451901566</v>
+        <v>99.45799457994579</v>
       </c>
       <c r="G71">
-        <v>2019</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="72">
@@ -3597,16 +3626,16 @@
         <v>2024</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>99.38461538461539</v>
+        <v>99.169449003517</v>
       </c>
       <c r="F72">
-        <v>99.38461538461539</v>
+        <v>99.17936694021103</v>
       </c>
       <c r="G72">
-        <v>2374</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="73">
@@ -3624,16 +3653,16 @@
         <v>2024</v>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E73">
-        <v>99.22490086045642</v>
+        <v>86.11400377358491</v>
       </c>
       <c r="F73">
-        <v>99.36401047512159</v>
+        <v>99.35849056603774</v>
       </c>
       <c r="G73">
-        <v>2444</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="74">
@@ -3651,16 +3680,16 @@
         <v>2024</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E74">
-        <v>93.15247875354108</v>
+        <v>99.28910067114094</v>
       </c>
       <c r="F74">
-        <v>99.57507082152975</v>
+        <v>99.41834451901566</v>
       </c>
       <c r="G74">
-        <v>2602</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="75">
@@ -3678,16 +3707,16 @@
         <v>2024</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E75">
-        <v>83.83884472511144</v>
+        <v>99.38461538461539</v>
       </c>
       <c r="F75">
-        <v>99.96285289747399</v>
+        <v>99.38461538461539</v>
       </c>
       <c r="G75">
-        <v>2515</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="76">
@@ -3702,22 +3731,19 @@
         </is>
       </c>
       <c r="C76">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E76">
-        <v>100</v>
+        <v>99.22490086045642</v>
       </c>
       <c r="F76">
-        <v>100</v>
+        <v>99.36401047512159</v>
       </c>
       <c r="G76">
-        <v>2400</v>
-      </c>
-      <c r="H76">
-        <v>2.92</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="77">
@@ -3732,22 +3758,19 @@
         </is>
       </c>
       <c r="C77">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>100</v>
+        <v>93.15247875354108</v>
       </c>
       <c r="F77">
-        <v>100</v>
+        <v>99.57507082152975</v>
       </c>
       <c r="G77">
-        <v>2484</v>
-      </c>
-      <c r="H77">
-        <v>3.8</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="78">
@@ -3762,22 +3785,19 @@
         </is>
       </c>
       <c r="C78">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E78">
-        <v>100</v>
+        <v>83.83884472511144</v>
       </c>
       <c r="F78">
-        <v>100</v>
+        <v>99.96285289747399</v>
       </c>
       <c r="G78">
-        <v>2512</v>
-      </c>
-      <c r="H78">
-        <v>9.869999999999999</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="79">
@@ -3795,7 +3815,7 @@
         <v>2025</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -3804,10 +3824,10 @@
         <v>100</v>
       </c>
       <c r="G79">
-        <v>2493</v>
+        <v>2400</v>
       </c>
       <c r="H79">
-        <v>-8.44</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="80">
@@ -3825,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -3834,28 +3854,28 @@
         <v>100</v>
       </c>
       <c r="G80">
-        <v>2522</v>
+        <v>2484</v>
       </c>
       <c r="H80">
-        <v>6.53</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>58887V2228177</t>
+          <t>34650V319662</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Raglamyr vest</t>
+          <t>Raglamyr  Avkj. rampe fra Haugesund</t>
         </is>
       </c>
       <c r="C81">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3864,88 +3884,100 @@
         <v>100</v>
       </c>
       <c r="G81">
-        <v>9843</v>
+        <v>2512</v>
+      </c>
+      <c r="H81">
+        <v>9.869999999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>58887V2228177</t>
+          <t>34650V319662</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Raglamyr vest</t>
+          <t>Raglamyr  Avkj. rampe fra Haugesund</t>
         </is>
       </c>
       <c r="C82">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82">
-        <v>51.61</v>
+        <v>100</v>
       </c>
       <c r="F82">
         <v>100</v>
       </c>
       <c r="G82">
-        <v>9370</v>
+        <v>2493</v>
+      </c>
+      <c r="H82">
+        <v>-8.44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>58887V2228177</t>
+          <t>34650V319662</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Raglamyr vest</t>
+          <t>Raglamyr  Avkj. rampe fra Haugesund</t>
         </is>
       </c>
       <c r="C83">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E83">
-        <v>99.98384099539467</v>
+        <v>100</v>
       </c>
       <c r="F83">
-        <v>99.98384099539467</v>
+        <v>100</v>
       </c>
       <c r="G83">
-        <v>11166</v>
+        <v>2522</v>
+      </c>
+      <c r="H83">
+        <v>6.53</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>58887V2228177</t>
+          <t>34650V319662</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Raglamyr vest</t>
+          <t>Raglamyr  Avkj. rampe fra Haugesund</t>
         </is>
       </c>
       <c r="C84">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E84">
-        <v>54.56554130239399</v>
+        <v>100</v>
       </c>
       <c r="F84">
-        <v>99.99182939782662</v>
+        <v>100</v>
       </c>
       <c r="G84">
-        <v>11013</v>
+        <v>2496</v>
+      </c>
+      <c r="H84">
+        <v>1.11</v>
       </c>
     </row>
     <row r="85">
@@ -3963,16 +3995,16 @@
         <v>2024</v>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>96.56196589018302</v>
+        <v>100</v>
       </c>
       <c r="F85">
-        <v>99.99168053244593</v>
+        <v>100</v>
       </c>
       <c r="G85">
-        <v>10886</v>
+        <v>9843</v>
       </c>
     </row>
     <row r="86">
@@ -3990,16 +4022,16 @@
         <v>2024</v>
       </c>
       <c r="D86">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>90.31150888408385</v>
+        <v>51.61</v>
       </c>
       <c r="F86">
-        <v>99.99059885306008</v>
+        <v>100</v>
       </c>
       <c r="G86">
-        <v>9618</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="87">
@@ -4017,16 +4049,16 @@
         <v>2024</v>
       </c>
       <c r="D87">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E87">
-        <v>99.99143395579921</v>
+        <v>99.98384099539467</v>
       </c>
       <c r="F87">
-        <v>99.99143395579921</v>
+        <v>99.98384099539467</v>
       </c>
       <c r="G87">
-        <v>10570</v>
+        <v>11166</v>
       </c>
     </row>
     <row r="88">
@@ -4044,16 +4076,16 @@
         <v>2024</v>
       </c>
       <c r="D88">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>93.33</v>
+        <v>54.56554130239399</v>
       </c>
       <c r="F88">
-        <v>100</v>
+        <v>99.99182939782662</v>
       </c>
       <c r="G88">
-        <v>10657</v>
+        <v>11013</v>
       </c>
     </row>
     <row r="89">
@@ -4071,16 +4103,16 @@
         <v>2024</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E89">
-        <v>99.99174781317049</v>
+        <v>96.56196589018302</v>
       </c>
       <c r="F89">
-        <v>99.99174781317049</v>
+        <v>99.99168053244593</v>
       </c>
       <c r="G89">
-        <v>10955</v>
+        <v>10886</v>
       </c>
     </row>
     <row r="90">
@@ -4098,16 +4130,16 @@
         <v>2024</v>
       </c>
       <c r="D90">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>93.31499397057641</v>
+        <v>90.31150888408385</v>
       </c>
       <c r="F90">
-        <v>99.98392153710105</v>
+        <v>99.99059885306008</v>
       </c>
       <c r="G90">
-        <v>11338</v>
+        <v>9618</v>
       </c>
     </row>
     <row r="91">
@@ -4122,22 +4154,19 @@
         </is>
       </c>
       <c r="C91">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E91">
-        <v>99.98131050664813</v>
+        <v>99.99143395579921</v>
       </c>
       <c r="F91">
-        <v>99.99130963761189</v>
+        <v>99.99143395579921</v>
       </c>
       <c r="G91">
-        <v>10482</v>
-      </c>
-      <c r="H91">
-        <v>3.63</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="92">
@@ -4152,22 +4181,19 @@
         </is>
       </c>
       <c r="C92">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E92">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="F92">
         <v>100</v>
       </c>
       <c r="G92">
-        <v>10597</v>
-      </c>
-      <c r="H92">
-        <v>11.29</v>
+        <v>10657</v>
       </c>
     </row>
     <row r="93">
@@ -4182,22 +4208,19 @@
         </is>
       </c>
       <c r="C93">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E93">
-        <v>99.99174167974235</v>
+        <v>99.99174781317049</v>
       </c>
       <c r="F93">
-        <v>99.99174167974235</v>
+        <v>99.99174781317049</v>
       </c>
       <c r="G93">
-        <v>11008</v>
-      </c>
-      <c r="H93">
-        <v>-1.41</v>
+        <v>10955</v>
       </c>
     </row>
     <row r="94">
@@ -4212,157 +4235,169 @@
         </is>
       </c>
       <c r="C94">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E94">
-        <v>93.53442520602681</v>
+        <v>93.31499397057641</v>
       </c>
       <c r="F94">
-        <v>99.98335136934988</v>
+        <v>99.98392153710105</v>
       </c>
       <c r="G94">
-        <v>10924</v>
-      </c>
-      <c r="H94">
-        <v>3.15</v>
+        <v>11338</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>39245V319652</t>
+          <t>58887V2228177</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Rossabø</t>
+          <t>Raglamyr vest</t>
         </is>
       </c>
       <c r="C95">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>99.85690436441689</v>
+        <v>99.98131050664813</v>
       </c>
       <c r="F95">
-        <v>99.85690436441689</v>
+        <v>99.99130963761189</v>
       </c>
       <c r="G95">
-        <v>11806</v>
+        <v>10482</v>
+      </c>
+      <c r="H95">
+        <v>3.63</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>39245V319652</t>
+          <t>58887V2228177</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Rossabø</t>
+          <t>Raglamyr vest</t>
         </is>
       </c>
       <c r="C96">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>99.81276213301379</v>
+        <v>100</v>
       </c>
       <c r="F96">
-        <v>99.81276213301378</v>
+        <v>100</v>
       </c>
       <c r="G96">
-        <v>12491</v>
+        <v>10597</v>
+      </c>
+      <c r="H96">
+        <v>11.29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>39245V319652</t>
+          <t>58887V2228177</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Rossabø</t>
+          <t>Raglamyr vest</t>
         </is>
       </c>
       <c r="C97">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>99.49297073058307</v>
+        <v>99.99174167974235</v>
       </c>
       <c r="F97">
-        <v>99.49297073058308</v>
+        <v>99.99174167974235</v>
       </c>
       <c r="G97">
-        <v>12117</v>
+        <v>11008</v>
+      </c>
+      <c r="H97">
+        <v>-1.41</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>39245V319652</t>
+          <t>58887V2228177</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Rossabø</t>
+          <t>Raglamyr vest</t>
         </is>
       </c>
       <c r="C98">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>99.30762306999932</v>
+        <v>93.53442520602681</v>
       </c>
       <c r="F98">
-        <v>99.30762306999931</v>
+        <v>99.98335136934988</v>
       </c>
       <c r="G98">
-        <v>13385</v>
+        <v>10924</v>
+      </c>
+      <c r="H98">
+        <v>3.15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>39245V319652</t>
+          <t>58887V2228177</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Rossabø</t>
+          <t>Raglamyr vest</t>
         </is>
       </c>
       <c r="C99">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E99">
-        <v>98.94631209232313</v>
+        <v>99.99180999180999</v>
       </c>
       <c r="F99">
-        <v>98.94631209232313</v>
+        <v>99.99180999180999</v>
       </c>
       <c r="G99">
-        <v>12867</v>
+        <v>11068</v>
+      </c>
+      <c r="H99">
+        <v>0.86</v>
       </c>
     </row>
     <row r="100">
@@ -4380,16 +4415,16 @@
         <v>2024</v>
       </c>
       <c r="D100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>98.97296726504752</v>
+        <v>99.85690436441689</v>
       </c>
       <c r="F100">
-        <v>99.26082365364309</v>
+        <v>99.85690436441689</v>
       </c>
       <c r="G100">
-        <v>13076</v>
+        <v>11806</v>
       </c>
     </row>
     <row r="101">
@@ -4407,16 +4442,16 @@
         <v>2024</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>89.51070192542042</v>
+        <v>99.81276213301379</v>
       </c>
       <c r="F101">
-        <v>99.26882768705825</v>
+        <v>99.81276213301378</v>
       </c>
       <c r="G101">
-        <v>11332</v>
+        <v>12491</v>
       </c>
     </row>
     <row r="102">
@@ -4434,16 +4469,16 @@
         <v>2024</v>
       </c>
       <c r="D102">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E102">
-        <v>99.28394186458701</v>
+        <v>99.49297073058307</v>
       </c>
       <c r="F102">
-        <v>99.28394186458702</v>
+        <v>99.49297073058308</v>
       </c>
       <c r="G102">
-        <v>13086</v>
+        <v>12117</v>
       </c>
     </row>
     <row r="103">
@@ -4461,289 +4496,289 @@
         <v>2024</v>
       </c>
       <c r="D103">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>78.86023722234204</v>
+        <v>99.30762306999932</v>
       </c>
       <c r="F103">
-        <v>99.24520163899074</v>
+        <v>99.30762306999931</v>
       </c>
       <c r="G103">
-        <v>12948</v>
+        <v>13385</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>42420V320754</t>
+          <t>39245V319652</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Salhusvegen</t>
+          <t>Rossabø</t>
         </is>
       </c>
       <c r="C104">
         <v>2024</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E104">
-        <v>98.92696434752509</v>
+        <v>98.94631209232313</v>
       </c>
       <c r="F104">
-        <v>98.92696434752509</v>
+        <v>98.94631209232313</v>
       </c>
       <c r="G104">
-        <v>2619</v>
+        <v>12867</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>42420V320754</t>
+          <t>39245V319652</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Salhusvegen</t>
+          <t>Rossabø</t>
         </is>
       </c>
       <c r="C105">
         <v>2024</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E105">
-        <v>98.73588938204166</v>
+        <v>98.97296726504752</v>
       </c>
       <c r="F105">
-        <v>98.80505291908501</v>
+        <v>99.26082365364309</v>
       </c>
       <c r="G105">
-        <v>2657</v>
+        <v>13076</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>42420V320754</t>
+          <t>39245V319652</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Salhusvegen</t>
+          <t>Rossabø</t>
         </is>
       </c>
       <c r="C106">
         <v>2024</v>
       </c>
       <c r="D106">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E106">
-        <v>98.9467394848386</v>
+        <v>89.51070192542042</v>
       </c>
       <c r="F106">
-        <v>98.95663514835344</v>
+        <v>99.26882768705825</v>
       </c>
       <c r="G106">
-        <v>2825</v>
+        <v>11332</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>42420V320754</t>
+          <t>39245V319652</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Salhusvegen</t>
+          <t>Rossabø</t>
         </is>
       </c>
       <c r="C107">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>98.84332281808622</v>
+        <v>99.28394186458701</v>
       </c>
       <c r="F107">
-        <v>98.84332281808622</v>
+        <v>99.28394186458702</v>
       </c>
       <c r="G107">
-        <v>2580</v>
-      </c>
-      <c r="H107">
-        <v>-1.09</v>
+        <v>13086</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>03999V320544</t>
+          <t>39245V319652</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Skjoldavegen</t>
+          <t>Rossabø</t>
         </is>
       </c>
       <c r="C108">
         <v>2024</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E108">
-        <v>99.68913205670231</v>
+        <v>78.86023722234204</v>
       </c>
       <c r="F108">
-        <v>99.68913205670231</v>
+        <v>99.24520163899074</v>
       </c>
       <c r="G108">
-        <v>7254</v>
+        <v>12948</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>03999V320544</t>
+          <t>39245V319652</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Skjoldavegen</t>
+          <t>Rossabø</t>
         </is>
       </c>
       <c r="C109">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>99.61616888569027</v>
+        <v>99.76696012428792</v>
       </c>
       <c r="F109">
-        <v>99.61616888569029</v>
+        <v>99.76696012428793</v>
       </c>
       <c r="G109">
-        <v>7450</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>03999V320544</t>
+          <t>42420V320754</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Skjoldavegen</t>
+          <t>Salhusvegen</t>
         </is>
       </c>
       <c r="C110">
         <v>2024</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>99.22286287290048</v>
+        <v>98.92696434752509</v>
       </c>
       <c r="F110">
-        <v>99.22286287290048</v>
+        <v>98.92696434752509</v>
       </c>
       <c r="G110">
-        <v>7158</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>03999V320544</t>
+          <t>42420V320754</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Skjoldavegen</t>
+          <t>Salhusvegen</t>
         </is>
       </c>
       <c r="C111">
         <v>2024</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>99.00791439081485</v>
+        <v>98.73588938204166</v>
       </c>
       <c r="F111">
-        <v>99.00791439081485</v>
+        <v>98.80505291908501</v>
       </c>
       <c r="G111">
-        <v>8024</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>03999V320544</t>
+          <t>42420V320754</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Skjoldavegen</t>
+          <t>Salhusvegen</t>
         </is>
       </c>
       <c r="C112">
         <v>2024</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E112">
-        <v>98.53218020917134</v>
+        <v>98.9467394848386</v>
       </c>
       <c r="F112">
-        <v>98.55189058728881</v>
+        <v>98.95663514835344</v>
       </c>
       <c r="G112">
-        <v>7703</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>03999V320544</t>
+          <t>42420V320754</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Skjoldavegen</t>
+          <t>Salhusvegen</t>
         </is>
       </c>
       <c r="C113">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>98.77580412866058</v>
+        <v>98.84332281808622</v>
       </c>
       <c r="F113">
-        <v>98.77580412866058</v>
+        <v>98.84332281808622</v>
       </c>
       <c r="G113">
-        <v>7367</v>
+        <v>2580</v>
+      </c>
+      <c r="H113">
+        <v>-1.09</v>
       </c>
     </row>
     <row r="114">
@@ -4761,16 +4796,16 @@
         <v>2024</v>
       </c>
       <c r="D114">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>98.62642366298178</v>
+        <v>99.68913205670231</v>
       </c>
       <c r="F114">
-        <v>98.71526740364506</v>
+        <v>99.68913205670231</v>
       </c>
       <c r="G114">
-        <v>5869</v>
+        <v>7254</v>
       </c>
     </row>
     <row r="115">
@@ -4788,16 +4823,16 @@
         <v>2024</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>98.67392043522609</v>
+        <v>99.61616888569027</v>
       </c>
       <c r="F115">
-        <v>98.67392043522611</v>
+        <v>99.61616888569029</v>
       </c>
       <c r="G115">
-        <v>7778</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="116">
@@ -4815,16 +4850,16 @@
         <v>2024</v>
       </c>
       <c r="D116">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E116">
-        <v>98.68964842011572</v>
+        <v>99.22286287290048</v>
       </c>
       <c r="F116">
-        <v>98.70939029817535</v>
+        <v>99.22286287290048</v>
       </c>
       <c r="G116">
-        <v>8020</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="117">
@@ -4842,16 +4877,16 @@
         <v>2024</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>99.03806794924272</v>
+        <v>99.00791439081485</v>
       </c>
       <c r="F117">
-        <v>99.03806794924273</v>
+        <v>99.00791439081485</v>
       </c>
       <c r="G117">
-        <v>8773</v>
+        <v>8024</v>
       </c>
     </row>
     <row r="118">
@@ -4869,16 +4904,16 @@
         <v>2024</v>
       </c>
       <c r="D118">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>99.42279942279943</v>
+        <v>98.53218020917134</v>
       </c>
       <c r="F118">
-        <v>99.42279942279943</v>
+        <v>98.55189058728881</v>
       </c>
       <c r="G118">
-        <v>8739</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="119">
@@ -4896,16 +4931,16 @@
         <v>2024</v>
       </c>
       <c r="D119">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E119">
-        <v>99.65185099222468</v>
+        <v>98.77580412866058</v>
       </c>
       <c r="F119">
-        <v>99.65185099222468</v>
+        <v>98.77580412866058</v>
       </c>
       <c r="G119">
-        <v>7787</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="120">
@@ -4920,22 +4955,19 @@
         </is>
       </c>
       <c r="C120">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E120">
-        <v>99.63265789785518</v>
+        <v>98.62642366298178</v>
       </c>
       <c r="F120">
-        <v>99.6326578978552</v>
+        <v>98.71526740364506</v>
       </c>
       <c r="G120">
-        <v>7535</v>
-      </c>
-      <c r="H120">
-        <v>3.89</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="121">
@@ -4950,22 +4982,19 @@
         </is>
       </c>
       <c r="C121">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E121">
-        <v>99.51047358834244</v>
+        <v>98.67392043522609</v>
       </c>
       <c r="F121">
-        <v>99.51047358834244</v>
+        <v>98.67392043522611</v>
       </c>
       <c r="G121">
-        <v>7857</v>
-      </c>
-      <c r="H121">
-        <v>5.48</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="122">
@@ -4980,22 +5009,19 @@
         </is>
       </c>
       <c r="C122">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E122">
-        <v>99.21434104238134</v>
+        <v>98.68964842011572</v>
       </c>
       <c r="F122">
-        <v>99.21434104238132</v>
+        <v>98.70939029817535</v>
       </c>
       <c r="G122">
-        <v>8045</v>
-      </c>
-      <c r="H122">
-        <v>12.07</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="123">
@@ -5010,22 +5036,19 @@
         </is>
       </c>
       <c r="C123">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E123">
-        <v>98.93054277828887</v>
+        <v>99.03806794924272</v>
       </c>
       <c r="F123">
-        <v>98.93054277828887</v>
+        <v>99.03806794924273</v>
       </c>
       <c r="G123">
-        <v>7735</v>
-      </c>
-      <c r="H123">
-        <v>-3.62</v>
+        <v>8773</v>
       </c>
     </row>
     <row r="124">
@@ -5040,22 +5063,226 @@
         </is>
       </c>
       <c r="C124">
+        <v>2024</v>
+      </c>
+      <c r="D124">
+        <v>11</v>
+      </c>
+      <c r="E124">
+        <v>99.42279942279943</v>
+      </c>
+      <c r="F124">
+        <v>99.42279942279943</v>
+      </c>
+      <c r="G124">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>03999V320544</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Skjoldavegen</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>2024</v>
+      </c>
+      <c r="D125">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>99.65185099222468</v>
+      </c>
+      <c r="F125">
+        <v>99.65185099222468</v>
+      </c>
+      <c r="G125">
+        <v>7787</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>03999V320544</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Skjoldavegen</t>
+        </is>
+      </c>
+      <c r="C126">
         <v>2025</v>
       </c>
-      <c r="D124">
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>99.63265789785518</v>
+      </c>
+      <c r="F126">
+        <v>99.6326578978552</v>
+      </c>
+      <c r="G126">
+        <v>7535</v>
+      </c>
+      <c r="H126">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>03999V320544</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Skjoldavegen</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>2025</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>99.51047358834244</v>
+      </c>
+      <c r="F127">
+        <v>99.51047358834244</v>
+      </c>
+      <c r="G127">
+        <v>7857</v>
+      </c>
+      <c r="H127">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>03999V320544</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Skjoldavegen</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>2025</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>99.21434104238134</v>
+      </c>
+      <c r="F128">
+        <v>99.21434104238132</v>
+      </c>
+      <c r="G128">
+        <v>8045</v>
+      </c>
+      <c r="H128">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>03999V320544</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Skjoldavegen</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>2025</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>98.93054277828887</v>
+      </c>
+      <c r="F129">
+        <v>98.93054277828887</v>
+      </c>
+      <c r="G129">
+        <v>7735</v>
+      </c>
+      <c r="H129">
+        <v>-3.62</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>03999V320544</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Skjoldavegen</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>2025</v>
+      </c>
+      <c r="D130">
         <v>5</v>
       </c>
-      <c r="E124">
+      <c r="E130">
         <v>98.84623918349234</v>
       </c>
-      <c r="F124">
+      <c r="F130">
         <v>98.84623918349234</v>
       </c>
-      <c r="G124">
+      <c r="G130">
         <v>8002</v>
       </c>
-      <c r="H124">
+      <c r="H130">
         <v>3.65</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>03999V320544</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Skjoldavegen</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>2025</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>98.88329775880469</v>
+      </c>
+      <c r="F131">
+        <v>98.93276414087512</v>
+      </c>
+      <c r="G131">
+        <v>7433</v>
+      </c>
+      <c r="H131">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/data_indexpoints_tidy/tallmateriale_19955.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_19955.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programmering\R\byindeks\data_indexpoints_tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA67D16-26F4-4E98-911A-8BC4A693ECAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1C17C-C90E-41AB-9A2D-B530465B0186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
@@ -651,9 +651,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -759,7 +759,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -812,7 +812,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -865,7 +865,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -918,7 +918,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -971,7 +971,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1245,11 +1245,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:L6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="5.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1316,7 +1327,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1354,7 +1365,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1403,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1415,7 +1426,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1441,7 +1452,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1479,7 +1490,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1514,7 +1525,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1534,7 +1545,7 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1581,11 +1592,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -1629,7 +1640,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2024</v>
       </c>
